--- a/results/I3_N5_M2_T45_C100_DepCentral_s3_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1189.722718100826</v>
+        <v>1083.153070635371</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.432718100827</v>
+        <v>26.43831051044998</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.047484021870876</v>
+        <v>11.78712555300147</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.047484021870876</v>
+        <v>8.501885677922242</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>608.6799999999988</v>
+        <v>972</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>548.6099999999999</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -639,12 +639,56 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -813,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -918,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.82218000304263</v>
+        <v>35.63767327242692</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>32.5321137415211</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>36.55091596648896</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.57804986039767</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.449084033511042</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>40.70719001468155</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.42195013960233</v>
+        <v>40.16296524632997</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,12 +1129,138 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>141.7600000000002</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
@@ -1204,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>123.4849999999996</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>139.6</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>136.6349999999996</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>141.8899999999996</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12">
@@ -1248,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>115.9200000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7600000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -1270,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>124.35</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
@@ -1281,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>126.5100000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>126.4300000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>76.04000000000059</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -1314,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>64.045</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>70.22500000000001</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>72.455</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
@@ -1347,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>78.705</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>55.62000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1369,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>59.11000000000029</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1380,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.63000000000029</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1391,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>59.33000000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1402,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>57.65</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1413,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>36.35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1424,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>32.46500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -1435,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.61000000000072</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -1446,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>41.73500000000072</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -1457,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.29500000000073</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
@@ -1468,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>141.7600000000002</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
@@ -1479,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>123.4849999999996</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
@@ -1490,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>139.6</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35">
@@ -1501,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>136.6349999999996</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36">
@@ -1512,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>141.8899999999996</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37">
@@ -1523,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>115.9200000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -1534,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>127.7600000000001</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -1545,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>124.35</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
@@ -1556,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>126.5100000000001</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -1567,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>126.4300000000001</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>41.76000000000023</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -1625,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>23.48499999999964</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -1636,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>39.6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -1647,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>36.63499999999964</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>41.88999999999962</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1669,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.92000000000007</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.76000000000008</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>24.35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1702,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>26.51000000000008</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -1713,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>26.43000000000006</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1826,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1837,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1870,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1881,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1892,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1903,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1914,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1925,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1936,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>17.095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1947,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1958,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1969,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>16.935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1980,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1991,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2002,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2013,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2024,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2173,6 +2343,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
